--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9832.52066986269</v>
+        <v>10091.26577067203</v>
       </c>
       <c r="AB2" t="n">
-        <v>13453.28856070418</v>
+        <v>13807.31502265976</v>
       </c>
       <c r="AC2" t="n">
-        <v>12169.32558227915</v>
+        <v>12489.56425558494</v>
       </c>
       <c r="AD2" t="n">
-        <v>9832520.669862689</v>
+        <v>10091265.77067203</v>
       </c>
       <c r="AE2" t="n">
-        <v>13453288.56070418</v>
+        <v>13807315.02265976</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.216827127592879e-07</v>
+        <v>7.520914024981468e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.25625</v>
       </c>
       <c r="AH2" t="n">
-        <v>12169325.58227915</v>
+        <v>12489564.25558494</v>
       </c>
     </row>
     <row r="3">
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3246.810534349706</v>
+        <v>3384.85907822287</v>
       </c>
       <c r="AB3" t="n">
-        <v>4442.429412268984</v>
+        <v>4631.313520268185</v>
       </c>
       <c r="AC3" t="n">
-        <v>4018.450184150704</v>
+        <v>4189.307457982964</v>
       </c>
       <c r="AD3" t="n">
-        <v>3246810.534349706</v>
+        <v>3384859.07822287</v>
       </c>
       <c r="AE3" t="n">
-        <v>4442429.412268984</v>
+        <v>4631313.520268185</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.848657700889133e-07</v>
+        <v>1.419845933519292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.86041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4018450.184150704</v>
+        <v>4189307.457982964</v>
       </c>
     </row>
     <row r="4">
@@ -3314,28 +3314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2468.254882517983</v>
+        <v>2580.403412513248</v>
       </c>
       <c r="AB4" t="n">
-        <v>3377.175221981522</v>
+        <v>3530.621788365009</v>
       </c>
       <c r="AC4" t="n">
-        <v>3054.862358690671</v>
+        <v>3193.664200142121</v>
       </c>
       <c r="AD4" t="n">
-        <v>2468254.882517983</v>
+        <v>2580403.412513248</v>
       </c>
       <c r="AE4" t="n">
-        <v>3377175.221981522</v>
+        <v>3530621.788365009</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.154967012560202e-06</v>
+        <v>1.665074841604538e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.31666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3054862.358690672</v>
+        <v>3193664.20014212</v>
       </c>
     </row>
     <row r="5">
@@ -3420,28 +3420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2142.731795176622</v>
+        <v>2246.246957376406</v>
       </c>
       <c r="AB5" t="n">
-        <v>2931.780172815818</v>
+        <v>3073.414184504389</v>
       </c>
       <c r="AC5" t="n">
-        <v>2651.975187901592</v>
+        <v>2780.091848299074</v>
       </c>
       <c r="AD5" t="n">
-        <v>2142731.795176622</v>
+        <v>2246246.957376406</v>
       </c>
       <c r="AE5" t="n">
-        <v>2931780.172815818</v>
+        <v>3073414.184504389</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.245707126468557e-06</v>
+        <v>1.795891634768366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.39791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2651975.187901592</v>
+        <v>2780091.848299074</v>
       </c>
     </row>
     <row r="6">
@@ -3526,28 +3526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1946.084525443872</v>
+        <v>2049.514346789082</v>
       </c>
       <c r="AB6" t="n">
-        <v>2662.718702902213</v>
+        <v>2804.235947468406</v>
       </c>
       <c r="AC6" t="n">
-        <v>2408.592567046396</v>
+        <v>2536.603604411892</v>
       </c>
       <c r="AD6" t="n">
-        <v>1946084.525443872</v>
+        <v>2049514.346789082</v>
       </c>
       <c r="AE6" t="n">
-        <v>2662718.702902213</v>
+        <v>2804235.947468406</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.303477359760693e-06</v>
+        <v>1.879176924306751e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.31666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2408592.567046396</v>
+        <v>2536603.604411892</v>
       </c>
     </row>
     <row r="7">
@@ -3632,28 +3632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1804.732040931371</v>
+        <v>1908.247113622602</v>
       </c>
       <c r="AB7" t="n">
-        <v>2469.313997560709</v>
+        <v>2610.947886779552</v>
       </c>
       <c r="AC7" t="n">
-        <v>2233.646135337477</v>
+        <v>2361.762684953685</v>
       </c>
       <c r="AD7" t="n">
-        <v>1804732.040931371</v>
+        <v>1908247.113622602</v>
       </c>
       <c r="AE7" t="n">
-        <v>2469313.997560709</v>
+        <v>2610947.886779552</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.341990848622117e-06</v>
+        <v>1.934700450665675e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.64791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2233646.135337477</v>
+        <v>2361762.684953685</v>
       </c>
     </row>
     <row r="8">
@@ -3738,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1688.71203074569</v>
+        <v>1783.593825149987</v>
       </c>
       <c r="AB8" t="n">
-        <v>2310.570301183052</v>
+        <v>2440.391758176356</v>
       </c>
       <c r="AC8" t="n">
-        <v>2090.052714543926</v>
+        <v>2207.484193887348</v>
       </c>
       <c r="AD8" t="n">
-        <v>1688712.03074569</v>
+        <v>1783593.825149987</v>
       </c>
       <c r="AE8" t="n">
-        <v>2310570.301183052</v>
+        <v>2440391.758176356</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.372334809543239e-06</v>
+        <v>1.978446259312099e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.14791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2090052.714543926</v>
+        <v>2207484.193887348</v>
       </c>
     </row>
     <row r="9">
@@ -3844,28 +3844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1656.640996459085</v>
+        <v>1751.522790863383</v>
       </c>
       <c r="AB9" t="n">
-        <v>2266.689297197944</v>
+        <v>2396.510754191248</v>
       </c>
       <c r="AC9" t="n">
-        <v>2050.359651991781</v>
+        <v>2167.791131335203</v>
       </c>
       <c r="AD9" t="n">
-        <v>1656640.996459085</v>
+        <v>1751522.790863383</v>
       </c>
       <c r="AE9" t="n">
-        <v>2266689.297197944</v>
+        <v>2396510.754191248</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.38021256862853e-06</v>
+        <v>1.989803344249152e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.02083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2050359.651991781</v>
+        <v>2167791.131335203</v>
       </c>
     </row>
     <row r="10">
@@ -3950,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1663.73922209307</v>
+        <v>1758.621016497368</v>
       </c>
       <c r="AB10" t="n">
-        <v>2276.401402661977</v>
+        <v>2406.22285965528</v>
       </c>
       <c r="AC10" t="n">
-        <v>2059.144847741352</v>
+        <v>2176.576327084775</v>
       </c>
       <c r="AD10" t="n">
-        <v>1663739.22209307</v>
+        <v>1758621.016497368</v>
       </c>
       <c r="AE10" t="n">
-        <v>2276401.402661976</v>
+        <v>2406222.859655281</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.380066684201025e-06</v>
+        <v>1.989593027861428e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.02291666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2059144.847741352</v>
+        <v>2176576.327084775</v>
       </c>
     </row>
   </sheetData>
@@ -4247,28 +4247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5875.722023627208</v>
+        <v>6077.569507238138</v>
       </c>
       <c r="AB2" t="n">
-        <v>8039.422091288158</v>
+        <v>8315.598723247153</v>
       </c>
       <c r="AC2" t="n">
-        <v>7272.150930295085</v>
+        <v>7521.969652116236</v>
       </c>
       <c r="AD2" t="n">
-        <v>5875722.023627208</v>
+        <v>6077569.507238138</v>
       </c>
       <c r="AE2" t="n">
-        <v>8039422.091288159</v>
+        <v>8315598.723247152</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.886269665988212e-07</v>
+        <v>1.008123973675277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.65416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>7272150.930295086</v>
+        <v>7521969.652116236</v>
       </c>
     </row>
     <row r="3">
@@ -4353,28 +4353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2522.672869957672</v>
+        <v>2640.431548381694</v>
       </c>
       <c r="AB3" t="n">
-        <v>3451.632313148678</v>
+        <v>3612.754932114672</v>
       </c>
       <c r="AC3" t="n">
-        <v>3122.213369578015</v>
+        <v>3267.958671926904</v>
       </c>
       <c r="AD3" t="n">
-        <v>2522672.869957672</v>
+        <v>2640431.548381694</v>
       </c>
       <c r="AE3" t="n">
-        <v>3451632.313148678</v>
+        <v>3612754.932114671</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.115264800167716e-06</v>
+        <v>1.632705712351588e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.19166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3122213.369578015</v>
+        <v>3267958.671926904</v>
       </c>
     </row>
     <row r="4">
@@ -4459,28 +4459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1979.039361498596</v>
+        <v>2088.380526859064</v>
       </c>
       <c r="AB4" t="n">
-        <v>2707.808963457044</v>
+        <v>2857.414369695005</v>
       </c>
       <c r="AC4" t="n">
-        <v>2449.379476418453</v>
+        <v>2584.706752657569</v>
       </c>
       <c r="AD4" t="n">
-        <v>1979039.361498596</v>
+        <v>2088380.526859064</v>
       </c>
       <c r="AE4" t="n">
-        <v>2707808.963457044</v>
+        <v>2857414.369695005</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.269047591963508e-06</v>
+        <v>1.857837934393032e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.77708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2449379.476418453</v>
+        <v>2584706.752657569</v>
       </c>
     </row>
     <row r="5">
@@ -4565,28 +4565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1726.146009073551</v>
+        <v>1826.984499532995</v>
       </c>
       <c r="AB5" t="n">
-        <v>2361.789121801801</v>
+        <v>2499.760793128639</v>
       </c>
       <c r="AC5" t="n">
-        <v>2136.383282808888</v>
+        <v>2261.18713146875</v>
       </c>
       <c r="AD5" t="n">
-        <v>1726146.009073551</v>
+        <v>1826984.499532995</v>
       </c>
       <c r="AE5" t="n">
-        <v>2361789.121801801</v>
+        <v>2499760.793128639</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.352352892327863e-06</v>
+        <v>1.979793760268279e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>2136383.282808888</v>
+        <v>2261187.13146875</v>
       </c>
     </row>
     <row r="6">
@@ -4671,28 +4671,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1554.662866248594</v>
+        <v>1647.169274007606</v>
       </c>
       <c r="AB6" t="n">
-        <v>2127.158320486366</v>
+        <v>2253.729668676928</v>
       </c>
       <c r="AC6" t="n">
-        <v>1924.145315864599</v>
+        <v>2038.636872227857</v>
       </c>
       <c r="AD6" t="n">
-        <v>1554662.866248594</v>
+        <v>1647169.274007606</v>
       </c>
       <c r="AE6" t="n">
-        <v>2127158.320486366</v>
+        <v>2253729.668676928</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.403513212660319e-06</v>
+        <v>2.054690544637316e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.40208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1924145.315864599</v>
+        <v>2038636.872227857</v>
       </c>
     </row>
     <row r="7">
@@ -4777,28 +4777,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1526.463799822207</v>
+        <v>1618.970207581219</v>
       </c>
       <c r="AB7" t="n">
-        <v>2088.575113746773</v>
+        <v>2215.146461937336</v>
       </c>
       <c r="AC7" t="n">
-        <v>1889.244436224363</v>
+        <v>2003.735992587621</v>
       </c>
       <c r="AD7" t="n">
-        <v>1526463.799822207</v>
+        <v>1618970.207581219</v>
       </c>
       <c r="AE7" t="n">
-        <v>2088575.113746773</v>
+        <v>2215146.461937335</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.412115390415334e-06</v>
+        <v>2.067283809265739e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.26458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1889244.436224363</v>
+        <v>2003735.992587621</v>
       </c>
     </row>
   </sheetData>
@@ -5074,28 +5074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1827.300273923983</v>
+        <v>1943.72426408301</v>
       </c>
       <c r="AB2" t="n">
-        <v>2500.192849581373</v>
+        <v>2659.489289180899</v>
       </c>
       <c r="AC2" t="n">
-        <v>2261.577953060029</v>
+        <v>2405.671364038134</v>
       </c>
       <c r="AD2" t="n">
-        <v>1827300.273923984</v>
+        <v>1943724.26408301</v>
       </c>
       <c r="AE2" t="n">
-        <v>2500192.849581372</v>
+        <v>2659489.289180899</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.220897103754856e-06</v>
+        <v>1.888878518397286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.73541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2261577.95306003</v>
+        <v>2405671.364038134</v>
       </c>
     </row>
     <row r="3">
@@ -5180,28 +5180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1241.421960836515</v>
+        <v>1342.22603267249</v>
       </c>
       <c r="AB3" t="n">
-        <v>1698.568294488124</v>
+        <v>1836.492872735889</v>
       </c>
       <c r="AC3" t="n">
-        <v>1536.459320417751</v>
+        <v>1661.220570495911</v>
       </c>
       <c r="AD3" t="n">
-        <v>1241421.960836515</v>
+        <v>1342226.03267249</v>
       </c>
       <c r="AE3" t="n">
-        <v>1698568.294488124</v>
+        <v>1836492.872735889</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.465413323706862e-06</v>
+        <v>2.267175292012852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.93958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1536459.320417751</v>
+        <v>1661220.570495911</v>
       </c>
     </row>
     <row r="4">
@@ -5286,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1248.545868163674</v>
+        <v>1349.349939999649</v>
       </c>
       <c r="AB4" t="n">
-        <v>1708.315538777753</v>
+        <v>1846.240117025518</v>
       </c>
       <c r="AC4" t="n">
-        <v>1545.276301392721</v>
+        <v>1670.037551470881</v>
       </c>
       <c r="AD4" t="n">
-        <v>1248545.868163674</v>
+        <v>1349349.939999649</v>
       </c>
       <c r="AE4" t="n">
-        <v>1708315.538777753</v>
+        <v>1846240.117025518</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466760520511006e-06</v>
+        <v>2.269259571757291e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.92083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1545276.301392721</v>
+        <v>1670037.551470881</v>
       </c>
     </row>
   </sheetData>
@@ -5583,28 +5583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2812.026858082182</v>
+        <v>2948.221179581248</v>
       </c>
       <c r="AB2" t="n">
-        <v>3847.539205097675</v>
+        <v>4033.886284242115</v>
       </c>
       <c r="AC2" t="n">
-        <v>3480.335463418197</v>
+        <v>3648.897838868854</v>
       </c>
       <c r="AD2" t="n">
-        <v>2812026.858082182</v>
+        <v>2948221.179581248</v>
       </c>
       <c r="AE2" t="n">
-        <v>3847539.205097675</v>
+        <v>4033886.284242115</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.004474424784511e-06</v>
+        <v>1.518056139628496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.41666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3480335.463418197</v>
+        <v>3648897.838868854</v>
       </c>
     </row>
     <row r="3">
@@ -5689,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1574.864102296439</v>
+        <v>1679.057813094547</v>
       </c>
       <c r="AB3" t="n">
-        <v>2154.798542862663</v>
+        <v>2297.360974678736</v>
       </c>
       <c r="AC3" t="n">
-        <v>1949.147594210599</v>
+        <v>2078.104067621775</v>
       </c>
       <c r="AD3" t="n">
-        <v>1574864.102296439</v>
+        <v>1679057.813094547</v>
       </c>
       <c r="AE3" t="n">
-        <v>2154798.542862663</v>
+        <v>2297360.974678736</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.361316582105712e-06</v>
+        <v>2.057349539672941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1949147.594210599</v>
+        <v>2078104.067621775</v>
       </c>
     </row>
     <row r="4">
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1337.05046054053</v>
+        <v>1425.286670678272</v>
       </c>
       <c r="AB4" t="n">
-        <v>1829.411426614814</v>
+        <v>1950.14010203213</v>
       </c>
       <c r="AC4" t="n">
-        <v>1654.814967653759</v>
+        <v>1764.021467733006</v>
       </c>
       <c r="AD4" t="n">
-        <v>1337050.46054053</v>
+        <v>1425286.670678272</v>
       </c>
       <c r="AE4" t="n">
-        <v>1829411.426614814</v>
+        <v>1950140.10203213</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.457333704346541e-06</v>
+        <v>2.202459637382417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1654814.967653759</v>
+        <v>1764021.467733006</v>
       </c>
     </row>
     <row r="5">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1342.978553411292</v>
+        <v>1431.214763549033</v>
       </c>
       <c r="AB5" t="n">
-        <v>1837.522504809591</v>
+        <v>1958.251180226906</v>
       </c>
       <c r="AC5" t="n">
-        <v>1662.151935929596</v>
+        <v>1771.358436008842</v>
       </c>
       <c r="AD5" t="n">
-        <v>1342978.553411292</v>
+        <v>1431214.763549034</v>
       </c>
       <c r="AE5" t="n">
-        <v>1837522.504809591</v>
+        <v>1958251.180226906</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.458461422225208e-06</v>
+        <v>2.204163950610549e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.0125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1662151.935929595</v>
+        <v>1771358.436008842</v>
       </c>
     </row>
   </sheetData>
@@ -6198,28 +6198,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1255.929483714747</v>
+        <v>1361.58216492558</v>
       </c>
       <c r="AB2" t="n">
-        <v>1718.418127316859</v>
+        <v>1862.976786816854</v>
       </c>
       <c r="AC2" t="n">
-        <v>1554.414713060726</v>
+        <v>1685.176896987395</v>
       </c>
       <c r="AD2" t="n">
-        <v>1255929.483714747</v>
+        <v>1361582.16492558</v>
       </c>
       <c r="AE2" t="n">
-        <v>1718418.127316859</v>
+        <v>1862976.786816854</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.411594935561399e-06</v>
+        <v>2.231008842883131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.81458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1554414.713060726</v>
+        <v>1685176.896987395</v>
       </c>
     </row>
     <row r="3">
@@ -6304,28 +6304,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1198.560722761945</v>
+        <v>1296.654681844188</v>
       </c>
       <c r="AB3" t="n">
-        <v>1639.923657650126</v>
+        <v>1774.140140066499</v>
       </c>
       <c r="AC3" t="n">
-        <v>1483.411645411307</v>
+        <v>1604.818695119877</v>
       </c>
       <c r="AD3" t="n">
-        <v>1198560.722761945</v>
+        <v>1296654.681844187</v>
       </c>
       <c r="AE3" t="n">
-        <v>1639923.657650126</v>
+        <v>1774140.140066499</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.449547618130699e-06</v>
+        <v>2.290992601885192e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.13541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1483411.645411307</v>
+        <v>1604818.695119877</v>
       </c>
     </row>
   </sheetData>
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6642.783535112677</v>
+        <v>6854.382168368522</v>
       </c>
       <c r="AB2" t="n">
-        <v>9088.949491668191</v>
+        <v>9378.468076761719</v>
       </c>
       <c r="AC2" t="n">
-        <v>8221.512908603767</v>
+        <v>8483.400246277843</v>
       </c>
       <c r="AD2" t="n">
-        <v>6642783.535112677</v>
+        <v>6854382.168368522</v>
       </c>
       <c r="AE2" t="n">
-        <v>9088949.491668191</v>
+        <v>9378468.076761719</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.450511457146112e-07</v>
+        <v>9.404112209820388e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.30625</v>
       </c>
       <c r="AH2" t="n">
-        <v>8221512.908603767</v>
+        <v>8483400.246277843</v>
       </c>
     </row>
     <row r="3">
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2690.352335714366</v>
+        <v>2817.379734646399</v>
       </c>
       <c r="AB3" t="n">
-        <v>3681.05875569294</v>
+        <v>3854.863246965085</v>
       </c>
       <c r="AC3" t="n">
-        <v>3329.743674447879</v>
+        <v>3486.960509009139</v>
       </c>
       <c r="AD3" t="n">
-        <v>2690352.335714366</v>
+        <v>2817379.734646399</v>
       </c>
       <c r="AE3" t="n">
-        <v>3681058.75569294</v>
+        <v>3854863.246965085</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.080419540144297e-06</v>
+        <v>1.575128833845177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.8375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3329743.674447879</v>
+        <v>3486960.509009139</v>
       </c>
     </row>
     <row r="4">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2103.877427748947</v>
+        <v>2213.871210030082</v>
       </c>
       <c r="AB4" t="n">
-        <v>2878.617913167559</v>
+        <v>3029.116258667977</v>
       </c>
       <c r="AC4" t="n">
-        <v>2603.886659700463</v>
+        <v>2740.021654331962</v>
       </c>
       <c r="AD4" t="n">
-        <v>2103877.427748946</v>
+        <v>2213871.210030082</v>
       </c>
       <c r="AE4" t="n">
-        <v>2878617.913167559</v>
+        <v>3029116.258667977</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.238504182161534e-06</v>
+        <v>1.805598265929113e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2603886.659700463</v>
+        <v>2740021.654331962</v>
       </c>
     </row>
     <row r="5">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1831.936478783733</v>
+        <v>1933.626670613016</v>
       </c>
       <c r="AB5" t="n">
-        <v>2506.536309605404</v>
+        <v>2645.67331632087</v>
       </c>
       <c r="AC5" t="n">
-        <v>2267.316002162469</v>
+        <v>2393.173968237027</v>
       </c>
       <c r="AD5" t="n">
-        <v>1831936.478783733</v>
+        <v>1933626.670613016</v>
       </c>
       <c r="AE5" t="n">
-        <v>2506536.309605404</v>
+        <v>2645673.31632087</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.323005433570937e-06</v>
+        <v>1.92879148175449e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.55</v>
       </c>
       <c r="AH5" t="n">
-        <v>2267316.00216247</v>
+        <v>2393173.968237027</v>
       </c>
     </row>
     <row r="6">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1650.28571398815</v>
+        <v>1751.890564962863</v>
       </c>
       <c r="AB6" t="n">
-        <v>2257.993719345936</v>
+        <v>2397.013958939204</v>
       </c>
       <c r="AC6" t="n">
-        <v>2042.493967885649</v>
+        <v>2168.246310928267</v>
       </c>
       <c r="AD6" t="n">
-        <v>1650285.71398815</v>
+        <v>1751890.564962863</v>
       </c>
       <c r="AE6" t="n">
-        <v>2257993.719345937</v>
+        <v>2397013.958939204</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.377295618104766e-06</v>
+        <v>2.00794039740867e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.62291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2042493.967885649</v>
+        <v>2168246.310928267</v>
       </c>
     </row>
     <row r="7">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1559.823430259665</v>
+        <v>1652.954188090488</v>
       </c>
       <c r="AB7" t="n">
-        <v>2134.21923183433</v>
+        <v>2261.644843337523</v>
       </c>
       <c r="AC7" t="n">
-        <v>1930.532343743565</v>
+        <v>2045.796633727864</v>
       </c>
       <c r="AD7" t="n">
-        <v>1559823.430259665</v>
+        <v>1652954.188090488</v>
       </c>
       <c r="AE7" t="n">
-        <v>2134219.23183433</v>
+        <v>2261644.843337523</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402720773396091e-06</v>
+        <v>2.045007382701262e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.2125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1930532.343743565</v>
+        <v>2045796.633727864</v>
       </c>
     </row>
     <row r="8">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1562.473232014124</v>
+        <v>1655.603989844947</v>
       </c>
       <c r="AB8" t="n">
-        <v>2137.844807495783</v>
+        <v>2265.270418998977</v>
       </c>
       <c r="AC8" t="n">
-        <v>1933.811899552417</v>
+        <v>2049.076189536715</v>
       </c>
       <c r="AD8" t="n">
-        <v>1562473.232014124</v>
+        <v>1655603.989844947</v>
       </c>
       <c r="AE8" t="n">
-        <v>2137844.807495783</v>
+        <v>2265270.418998977</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.403618131818137e-06</v>
+        <v>2.046315629241e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.19791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1933811.899552417</v>
+        <v>2049076.189536716</v>
       </c>
     </row>
     <row r="9">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1566.748766892893</v>
+        <v>1659.879524723716</v>
       </c>
       <c r="AB9" t="n">
-        <v>2143.694782940201</v>
+        <v>2271.120394443395</v>
       </c>
       <c r="AC9" t="n">
-        <v>1939.103561550912</v>
+        <v>2054.367851535211</v>
       </c>
       <c r="AD9" t="n">
-        <v>1566748.766892893</v>
+        <v>1659879.524723716</v>
       </c>
       <c r="AE9" t="n">
-        <v>2143694.782940201</v>
+        <v>2271120.394443395</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.405113729188215e-06</v>
+        <v>2.048496040140565e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.175</v>
       </c>
       <c r="AH9" t="n">
-        <v>1939103.561550912</v>
+        <v>2054367.851535211</v>
       </c>
     </row>
   </sheetData>
@@ -7640,28 +7640,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1173.729632365245</v>
+        <v>1270.304086772793</v>
       </c>
       <c r="AB2" t="n">
-        <v>1605.948664298968</v>
+        <v>1738.086093383608</v>
       </c>
       <c r="AC2" t="n">
-        <v>1452.67917774138</v>
+        <v>1572.205596050229</v>
       </c>
       <c r="AD2" t="n">
-        <v>1173729.632365245</v>
+        <v>1270304.086772793</v>
       </c>
       <c r="AE2" t="n">
-        <v>1605948.664298968</v>
+        <v>1738086.093383608</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.420437389970485e-06</v>
+        <v>2.275874356177326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.25208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1452679.17774138</v>
+        <v>1572205.596050229</v>
       </c>
     </row>
     <row r="3">
@@ -7746,28 +7746,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1184.568501040612</v>
+        <v>1281.14295544816</v>
       </c>
       <c r="AB3" t="n">
-        <v>1620.778882597742</v>
+        <v>1752.916311682384</v>
       </c>
       <c r="AC3" t="n">
-        <v>1466.094020820062</v>
+        <v>1585.620439128912</v>
       </c>
       <c r="AD3" t="n">
-        <v>1184568.501040612</v>
+        <v>1281142.95544816</v>
       </c>
       <c r="AE3" t="n">
-        <v>1620778.882597742</v>
+        <v>1752916.311682384</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.421153336235592e-06</v>
+        <v>2.277021470268141e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.2375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1466094.020820062</v>
+        <v>1585620.439128912</v>
       </c>
     </row>
   </sheetData>
@@ -8043,28 +8043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4085.835605764819</v>
+        <v>4250.414521349706</v>
       </c>
       <c r="AB2" t="n">
-        <v>5590.420530152958</v>
+        <v>5815.604663165533</v>
       </c>
       <c r="AC2" t="n">
-        <v>5056.878640959442</v>
+        <v>5260.571516365203</v>
       </c>
       <c r="AD2" t="n">
-        <v>4085835.605764819</v>
+        <v>4250414.521349706</v>
       </c>
       <c r="AE2" t="n">
-        <v>5590420.530152958</v>
+        <v>5815604.663165533</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.331134144065756e-07</v>
+        <v>1.237042785818911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.88125</v>
       </c>
       <c r="AH2" t="n">
-        <v>5056878.640959443</v>
+        <v>5260571.516365203</v>
       </c>
     </row>
     <row r="3">
@@ -8149,28 +8149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2038.321929249852</v>
+        <v>2145.268444589479</v>
       </c>
       <c r="AB3" t="n">
-        <v>2788.921988016618</v>
+        <v>2935.250928451563</v>
       </c>
       <c r="AC3" t="n">
-        <v>2522.751187756906</v>
+        <v>2655.114699490698</v>
       </c>
       <c r="AD3" t="n">
-        <v>2038321.929249852</v>
+        <v>2145268.444589479</v>
       </c>
       <c r="AE3" t="n">
-        <v>2788921.988016618</v>
+        <v>2935250.928451563</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.227590594762955e-06</v>
+        <v>1.822779543493897e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.38958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2522751.187756906</v>
+        <v>2655114.699490698</v>
       </c>
     </row>
     <row r="4">
@@ -8255,28 +8255,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1620.869945551275</v>
+        <v>1719.66849941495</v>
       </c>
       <c r="AB4" t="n">
-        <v>2217.745767238489</v>
+        <v>2352.926307319346</v>
       </c>
       <c r="AC4" t="n">
-        <v>2006.087223838981</v>
+        <v>2128.3663229016</v>
       </c>
       <c r="AD4" t="n">
-        <v>1620869.945551275</v>
+        <v>1719668.49941495</v>
       </c>
       <c r="AE4" t="n">
-        <v>2217745.767238489</v>
+        <v>2352926.307319345</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.370019091888081e-06</v>
+        <v>2.034263528527514e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.64583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2006087.223838981</v>
+        <v>2128366.3229016</v>
       </c>
     </row>
     <row r="5">
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1429.406741344272</v>
+        <v>1528.119954353376</v>
       </c>
       <c r="AB5" t="n">
-        <v>1955.777364482042</v>
+        <v>2090.8411374407</v>
       </c>
       <c r="AC5" t="n">
-        <v>1769.120717766646</v>
+        <v>1891.294193797326</v>
       </c>
       <c r="AD5" t="n">
-        <v>1429406.741344272</v>
+        <v>1528119.954353376</v>
       </c>
       <c r="AE5" t="n">
-        <v>1955777.364482042</v>
+        <v>2090841.1374407</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.435169245049028e-06</v>
+        <v>2.13100129024049e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.57083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1769120.717766646</v>
+        <v>1891294.193797326</v>
       </c>
     </row>
     <row r="6">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1431.800018627438</v>
+        <v>1530.513231636542</v>
       </c>
       <c r="AB6" t="n">
-        <v>1959.051952044812</v>
+        <v>2094.115725003469</v>
       </c>
       <c r="AC6" t="n">
-        <v>1772.082783288338</v>
+        <v>1894.256259319017</v>
       </c>
       <c r="AD6" t="n">
-        <v>1431800.018627438</v>
+        <v>1530513.231636542</v>
       </c>
       <c r="AE6" t="n">
-        <v>1959051.952044812</v>
+        <v>2094115.72500347</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.436413162054487e-06</v>
+        <v>2.13284831194384e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1772082.783288338</v>
+        <v>1894256.259319017</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5202.516413217048</v>
+        <v>5386.232955692683</v>
       </c>
       <c r="AB2" t="n">
-        <v>7118.312475389497</v>
+        <v>7369.681553806508</v>
       </c>
       <c r="AC2" t="n">
-        <v>6438.950723352362</v>
+        <v>6666.32948972396</v>
       </c>
       <c r="AD2" t="n">
-        <v>5202516.413217048</v>
+        <v>5386232.955692683</v>
       </c>
       <c r="AE2" t="n">
-        <v>7118312.475389497</v>
+        <v>7369681.553806508</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.349308769209912e-07</v>
+        <v>1.080673580657746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.18958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6438950.723352361</v>
+        <v>6666329.48972396</v>
       </c>
     </row>
     <row r="3">
@@ -8870,28 +8870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2351.966641942509</v>
+        <v>2468.985727645563</v>
       </c>
       <c r="AB3" t="n">
-        <v>3218.064520951053</v>
+        <v>3378.175196527689</v>
       </c>
       <c r="AC3" t="n">
-        <v>2910.936959653285</v>
+        <v>3055.766897069625</v>
       </c>
       <c r="AD3" t="n">
-        <v>2351966.641942509</v>
+        <v>2468985.727645563</v>
       </c>
       <c r="AE3" t="n">
-        <v>3218064.520951053</v>
+        <v>3378175.196527689</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.151452646718253e-06</v>
+        <v>1.693144884455067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.56666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2910936.959653285</v>
+        <v>3055766.897069625</v>
       </c>
     </row>
     <row r="4">
@@ -8976,28 +8976,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1860.554276309187</v>
+        <v>1960.771098422926</v>
       </c>
       <c r="AB4" t="n">
-        <v>2545.692442707852</v>
+        <v>2682.813519978027</v>
       </c>
       <c r="AC4" t="n">
-        <v>2302.735128877598</v>
+        <v>2426.769562983747</v>
       </c>
       <c r="AD4" t="n">
-        <v>1860554.276309187</v>
+        <v>1960771.098422926</v>
       </c>
       <c r="AE4" t="n">
-        <v>2545692.442707852</v>
+        <v>2682813.519978027</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.301820966685296e-06</v>
+        <v>1.914252849651832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.38125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2302735.128877597</v>
+        <v>2426769.562983747</v>
       </c>
     </row>
     <row r="5">
@@ -9082,28 +9082,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1613.290713371313</v>
+        <v>1713.507445976502</v>
       </c>
       <c r="AB5" t="n">
-        <v>2207.375527397741</v>
+        <v>2344.496482198367</v>
       </c>
       <c r="AC5" t="n">
-        <v>1996.70670513391</v>
+        <v>2120.741028458833</v>
       </c>
       <c r="AD5" t="n">
-        <v>1613290.713371313</v>
+        <v>1713507.445976502</v>
       </c>
       <c r="AE5" t="n">
-        <v>2207375.527397741</v>
+        <v>2344496.482198367</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.38195646445902e-06</v>
+        <v>2.032087489665508e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.96666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1996706.70513391</v>
+        <v>2120741.028458833</v>
       </c>
     </row>
     <row r="6">
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1493.969303527501</v>
+        <v>1585.827619519594</v>
       </c>
       <c r="AB6" t="n">
-        <v>2044.114710360356</v>
+        <v>2169.799310803627</v>
       </c>
       <c r="AC6" t="n">
-        <v>1849.027271336577</v>
+        <v>1962.716709912988</v>
       </c>
       <c r="AD6" t="n">
-        <v>1493969.303527501</v>
+        <v>1585827.619519594</v>
       </c>
       <c r="AE6" t="n">
-        <v>2044114.710360355</v>
+        <v>2169799.310803627</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.418977236244219e-06</v>
+        <v>2.086524405109089e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.36875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1849027.271336577</v>
+        <v>1962716.709912988</v>
       </c>
     </row>
     <row r="7">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1496.148542831248</v>
+        <v>1588.006858823341</v>
       </c>
       <c r="AB7" t="n">
-        <v>2047.096441716995</v>
+        <v>2172.781042160267</v>
       </c>
       <c r="AC7" t="n">
-        <v>1851.724430437425</v>
+        <v>1965.413869013835</v>
       </c>
       <c r="AD7" t="n">
-        <v>1496148.542831248</v>
+        <v>1588006.858823341</v>
       </c>
       <c r="AE7" t="n">
-        <v>2047096.441716995</v>
+        <v>2172781.042160267</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.421110120215383e-06</v>
+        <v>2.089660688303369e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1851724.430437425</v>
+        <v>1965413.869013835</v>
       </c>
     </row>
   </sheetData>
@@ -9591,28 +9591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8578.528951053675</v>
+        <v>8818.739476032322</v>
       </c>
       <c r="AB2" t="n">
-        <v>11737.5217688194</v>
+        <v>12066.18840643565</v>
       </c>
       <c r="AC2" t="n">
-        <v>10617.30916491811</v>
+        <v>10914.60831992676</v>
       </c>
       <c r="AD2" t="n">
-        <v>8578528.951053675</v>
+        <v>8818739.476032322</v>
       </c>
       <c r="AE2" t="n">
-        <v>11737521.7688194</v>
+        <v>12066188.40643565</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.617334174941177e-07</v>
+        <v>8.127004645057103e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.54166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>10617309.16491811</v>
+        <v>10914608.31992676</v>
       </c>
     </row>
     <row r="3">
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3059.532972780851</v>
+        <v>3188.177649559769</v>
       </c>
       <c r="AB3" t="n">
-        <v>4186.187990427557</v>
+        <v>4362.205312599071</v>
       </c>
       <c r="AC3" t="n">
-        <v>3786.664083972737</v>
+        <v>3945.882559958059</v>
       </c>
       <c r="AD3" t="n">
-        <v>3059532.972780851</v>
+        <v>3188177.649559769</v>
       </c>
       <c r="AE3" t="n">
-        <v>4186187.990427556</v>
+        <v>4362205.31259907</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.015531670474968e-06</v>
+        <v>1.469243300491213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.16458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3786664.083972737</v>
+        <v>3945882.559958059</v>
       </c>
     </row>
     <row r="4">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2339.379708348748</v>
+        <v>2459.356959556213</v>
       </c>
       <c r="AB4" t="n">
-        <v>3200.842523111748</v>
+        <v>3365.000691236572</v>
       </c>
       <c r="AC4" t="n">
-        <v>2895.358605116538</v>
+        <v>3043.849748072958</v>
       </c>
       <c r="AD4" t="n">
-        <v>2339379.708348748</v>
+        <v>2459356.959556214</v>
       </c>
       <c r="AE4" t="n">
-        <v>3200842.523111748</v>
+        <v>3365000.691236572</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.181698885597573e-06</v>
+        <v>1.709649458839761e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.925</v>
       </c>
       <c r="AH4" t="n">
-        <v>2895358.605116538</v>
+        <v>3043849.748072959</v>
       </c>
     </row>
     <row r="5">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2041.385085750228</v>
+        <v>2144.283776904158</v>
       </c>
       <c r="AB5" t="n">
-        <v>2793.11313387736</v>
+        <v>2933.903662684033</v>
       </c>
       <c r="AC5" t="n">
-        <v>2526.542336539008</v>
+        <v>2653.896014877122</v>
       </c>
       <c r="AD5" t="n">
-        <v>2041385.085750228</v>
+        <v>2144283.776904157</v>
       </c>
       <c r="AE5" t="n">
-        <v>2793113.13387736</v>
+        <v>2933903.662684033</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.270517467840099e-06</v>
+        <v>1.83814974170925e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.1125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2526542.336539008</v>
+        <v>2653896.014877121</v>
       </c>
     </row>
     <row r="6">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1855.413467888406</v>
+        <v>1958.226818187764</v>
       </c>
       <c r="AB6" t="n">
-        <v>2538.65856183008</v>
+        <v>2679.332323514555</v>
       </c>
       <c r="AC6" t="n">
-        <v>2296.372551718686</v>
+        <v>2423.62060702486</v>
       </c>
       <c r="AD6" t="n">
-        <v>1855413.467888406</v>
+        <v>1958226.818187764</v>
       </c>
       <c r="AE6" t="n">
-        <v>2538658.56183008</v>
+        <v>2679332.323514556</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.326102607058103e-06</v>
+        <v>1.91856879290903e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.10208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2296372.551718686</v>
+        <v>2423620.60702486</v>
       </c>
     </row>
     <row r="7">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1706.850784848692</v>
+        <v>1801.167480794292</v>
       </c>
       <c r="AB7" t="n">
-        <v>2335.388544772133</v>
+        <v>2464.436809123863</v>
       </c>
       <c r="AC7" t="n">
-        <v>2112.502339797489</v>
+        <v>2229.234418919867</v>
       </c>
       <c r="AD7" t="n">
-        <v>1706850.784848692</v>
+        <v>1801167.480794292</v>
       </c>
       <c r="AE7" t="n">
-        <v>2335388.544772133</v>
+        <v>2464436.809123863</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.36610037919381e-06</v>
+        <v>1.97643646996284e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.425</v>
       </c>
       <c r="AH7" t="n">
-        <v>2112502.339797489</v>
+        <v>2229234.418919867</v>
       </c>
     </row>
     <row r="8">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1623.754630814444</v>
+        <v>1718.071326760044</v>
       </c>
       <c r="AB8" t="n">
-        <v>2221.692720878889</v>
+        <v>2350.740985230619</v>
       </c>
       <c r="AC8" t="n">
-        <v>2009.657485763525</v>
+        <v>2126.389564885902</v>
       </c>
       <c r="AD8" t="n">
-        <v>1623754.630814444</v>
+        <v>1718071.326760044</v>
       </c>
       <c r="AE8" t="n">
-        <v>2221692.720878889</v>
+        <v>2350740.985230619</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.387275670324478e-06</v>
+        <v>2.007072298991327e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2009657.485763525</v>
+        <v>2126389.564885903</v>
       </c>
     </row>
     <row r="9">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1627.211747178404</v>
+        <v>1721.528443124004</v>
       </c>
       <c r="AB9" t="n">
-        <v>2226.422900005269</v>
+        <v>2355.471164356999</v>
       </c>
       <c r="AC9" t="n">
-        <v>2013.936223232931</v>
+        <v>2130.668302355308</v>
       </c>
       <c r="AD9" t="n">
-        <v>1627211.747178404</v>
+        <v>1721528.443124004</v>
       </c>
       <c r="AE9" t="n">
-        <v>2226422.900005269</v>
+        <v>2355471.164356999</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.388157974121589e-06</v>
+        <v>2.008348791867514e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.07083333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2013936.223232931</v>
+        <v>2130668.302355308</v>
       </c>
     </row>
   </sheetData>
@@ -10630,28 +10630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3198.825395333598</v>
+        <v>3344.379369330588</v>
       </c>
       <c r="AB2" t="n">
-        <v>4376.774028112216</v>
+        <v>4575.927396723041</v>
       </c>
       <c r="AC2" t="n">
-        <v>3959.06085770995</v>
+        <v>4139.207308334059</v>
       </c>
       <c r="AD2" t="n">
-        <v>3198825.395333598</v>
+        <v>3344379.369330588</v>
       </c>
       <c r="AE2" t="n">
-        <v>4376774.028112216</v>
+        <v>4575927.396723041</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.435407909577308e-07</v>
+        <v>1.416900688495461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.12708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3959060.85770995</v>
+        <v>4139207.30833406</v>
       </c>
     </row>
     <row r="3">
@@ -10736,28 +10736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1732.932263387842</v>
+        <v>1838.007191218836</v>
       </c>
       <c r="AB3" t="n">
-        <v>2371.074374343025</v>
+        <v>2514.842526180043</v>
       </c>
       <c r="AC3" t="n">
-        <v>2144.782363879511</v>
+        <v>2274.829485085073</v>
       </c>
       <c r="AD3" t="n">
-        <v>1732932.263387842</v>
+        <v>1838007.191218836</v>
       </c>
       <c r="AE3" t="n">
-        <v>2371074.374343025</v>
+        <v>2514842.526180043</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.313257330864284e-06</v>
+        <v>1.972098328027319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.2375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2144782.363879511</v>
+        <v>2274829.485085073</v>
       </c>
     </row>
     <row r="4">
@@ -10842,28 +10842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1381.217234400209</v>
+        <v>1478.281604344025</v>
       </c>
       <c r="AB4" t="n">
-        <v>1889.842355110171</v>
+        <v>2022.65010824508</v>
       </c>
       <c r="AC4" t="n">
-        <v>1709.47845314886</v>
+        <v>1829.611220721426</v>
       </c>
       <c r="AD4" t="n">
-        <v>1381217.234400209</v>
+        <v>1478281.604344025</v>
       </c>
       <c r="AE4" t="n">
-        <v>1889842.355110171</v>
+        <v>2022650.10824508</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.443071744187755e-06</v>
+        <v>2.167038635195132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.96666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1709478.45314886</v>
+        <v>1829611.220721426</v>
       </c>
     </row>
     <row r="5">
@@ -10948,28 +10948,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1365.08430423484</v>
+        <v>1462.148674178656</v>
       </c>
       <c r="AB5" t="n">
-        <v>1867.768568323266</v>
+        <v>2000.576321458175</v>
       </c>
       <c r="AC5" t="n">
-        <v>1689.511357592143</v>
+        <v>1809.644125164709</v>
       </c>
       <c r="AD5" t="n">
-        <v>1365084.30423484</v>
+        <v>1462148.674178656</v>
       </c>
       <c r="AE5" t="n">
-        <v>1867768.568323266</v>
+        <v>2000576.321458175</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.451821490183823e-06</v>
+        <v>2.180177994134139e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.82916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1689511.357592143</v>
+        <v>1809644.125164709</v>
       </c>
     </row>
   </sheetData>
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2134.572824279366</v>
+        <v>2252.360452814555</v>
       </c>
       <c r="AB2" t="n">
-        <v>2920.6167088858</v>
+        <v>3081.778938671248</v>
       </c>
       <c r="AC2" t="n">
-        <v>2641.877149301035</v>
+        <v>2787.658282068253</v>
       </c>
       <c r="AD2" t="n">
-        <v>2134572.824279366</v>
+        <v>2252360.452814555</v>
       </c>
       <c r="AE2" t="n">
-        <v>2920616.7088858</v>
+        <v>3081778.938671248</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.142109020334233e-06</v>
+        <v>1.751705996806124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2641877.149301035</v>
+        <v>2787658.282068253</v>
       </c>
     </row>
     <row r="3">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1286.139472101542</v>
+        <v>1380.437776006508</v>
       </c>
       <c r="AB3" t="n">
-        <v>1759.752766198298</v>
+        <v>1888.775865748632</v>
       </c>
       <c r="AC3" t="n">
-        <v>1591.804432020852</v>
+        <v>1708.513748035158</v>
       </c>
       <c r="AD3" t="n">
-        <v>1286139.472101542</v>
+        <v>1380437.776006508</v>
       </c>
       <c r="AE3" t="n">
-        <v>1759752.766198298</v>
+        <v>1888775.865748632</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.458293583711731e-06</v>
+        <v>2.236653042932951e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.67291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1591804.432020852</v>
+        <v>1708513.748035158</v>
       </c>
     </row>
     <row r="4">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1277.056020275234</v>
+        <v>1371.3543241802</v>
       </c>
       <c r="AB4" t="n">
-        <v>1747.324386675931</v>
+        <v>1876.347486226264</v>
       </c>
       <c r="AC4" t="n">
-        <v>1580.562199596759</v>
+        <v>1697.271515611066</v>
       </c>
       <c r="AD4" t="n">
-        <v>1277056.020275234</v>
+        <v>1371354.3241802</v>
       </c>
       <c r="AE4" t="n">
-        <v>1747324.386675932</v>
+        <v>1876347.486226264</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466745057890061e-06</v>
+        <v>2.249615463977221e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.5375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1580562.199596759</v>
+        <v>1697271.515611066</v>
       </c>
     </row>
   </sheetData>
@@ -20527,28 +20527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1537.017142350883</v>
+        <v>1644.202191411571</v>
       </c>
       <c r="AB2" t="n">
-        <v>2103.014662575121</v>
+        <v>2249.669975370585</v>
       </c>
       <c r="AC2" t="n">
-        <v>1902.305894778568</v>
+        <v>2034.964630352858</v>
       </c>
       <c r="AD2" t="n">
-        <v>1537017.142350883</v>
+        <v>1644202.191411571</v>
       </c>
       <c r="AE2" t="n">
-        <v>2103014.662575122</v>
+        <v>2249669.975370585</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.311570563281269e-06</v>
+        <v>2.049303133918177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1902305.894778568</v>
+        <v>2034964.630352858</v>
       </c>
     </row>
     <row r="3">
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1219.970488695679</v>
+        <v>1319.401936811703</v>
       </c>
       <c r="AB3" t="n">
-        <v>1669.217443932872</v>
+        <v>1805.263937851116</v>
       </c>
       <c r="AC3" t="n">
-        <v>1509.909673845315</v>
+        <v>1632.972081326455</v>
       </c>
       <c r="AD3" t="n">
-        <v>1219970.488695679</v>
+        <v>1319401.936811703</v>
       </c>
       <c r="AE3" t="n">
-        <v>1669217.443932872</v>
+        <v>1805263.937851117</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.461738621500377e-06</v>
+        <v>2.283937762765691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.43333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1509909.673845315</v>
+        <v>1632972.081326455</v>
       </c>
     </row>
     <row r="4">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1229.72487804373</v>
+        <v>1329.156326159754</v>
       </c>
       <c r="AB4" t="n">
-        <v>1682.563829772162</v>
+        <v>1818.610323690407</v>
       </c>
       <c r="AC4" t="n">
-        <v>1521.982299351873</v>
+        <v>1645.044706833014</v>
       </c>
       <c r="AD4" t="n">
-        <v>1229724.87804373</v>
+        <v>1329156.326159754</v>
       </c>
       <c r="AE4" t="n">
-        <v>1682563.829772162</v>
+        <v>1818610.323690407</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.461567196776382e-06</v>
+        <v>2.283669915015865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.43541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1521982.299351873</v>
+        <v>1645044.706833014</v>
       </c>
     </row>
   </sheetData>
@@ -21036,28 +21036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1169.693489745409</v>
+        <v>1271.692824627694</v>
       </c>
       <c r="AB2" t="n">
-        <v>1600.426235904463</v>
+        <v>1739.986225783474</v>
       </c>
       <c r="AC2" t="n">
-        <v>1447.683802162071</v>
+        <v>1573.924382480705</v>
       </c>
       <c r="AD2" t="n">
-        <v>1169693.489745409</v>
+        <v>1271692.824627694</v>
       </c>
       <c r="AE2" t="n">
-        <v>1600426.235904463</v>
+        <v>1739986.225783474</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.36392544793876e-06</v>
+        <v>2.222756749827556e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.10208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1447683.802162071</v>
+        <v>1573924.382480705</v>
       </c>
     </row>
   </sheetData>
@@ -21333,28 +21333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4609.881083659943</v>
+        <v>4792.163365159096</v>
       </c>
       <c r="AB2" t="n">
-        <v>6307.442672263917</v>
+        <v>6556.849331537774</v>
       </c>
       <c r="AC2" t="n">
-        <v>5705.469196174201</v>
+        <v>5931.072833931396</v>
       </c>
       <c r="AD2" t="n">
-        <v>4609881.083659943</v>
+        <v>4792163.365159096</v>
       </c>
       <c r="AE2" t="n">
-        <v>6307442.672263918</v>
+        <v>6556849.331537774</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.825814716009663e-07</v>
+        <v>1.156170844310751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.9625</v>
       </c>
       <c r="AH2" t="n">
-        <v>5705469.196174201</v>
+        <v>5931072.833931396</v>
       </c>
     </row>
     <row r="3">
@@ -21439,28 +21439,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2192.175961076294</v>
+        <v>2308.251359170819</v>
       </c>
       <c r="AB3" t="n">
-        <v>2999.43186192257</v>
+        <v>3158.251342480659</v>
       </c>
       <c r="AC3" t="n">
-        <v>2713.170294749625</v>
+        <v>2856.832266987784</v>
       </c>
       <c r="AD3" t="n">
-        <v>2192175.961076294</v>
+        <v>2308251.359170819</v>
       </c>
       <c r="AE3" t="n">
-        <v>2999431.86192257</v>
+        <v>3158251.342480659</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.187566613805792e-06</v>
+        <v>1.7544881196206e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.99166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2713170.294749625</v>
+        <v>2856832.266987784</v>
       </c>
     </row>
     <row r="4">
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1747.164554384796</v>
+        <v>1846.645650709429</v>
       </c>
       <c r="AB4" t="n">
-        <v>2390.547622769421</v>
+        <v>2526.662047557009</v>
       </c>
       <c r="AC4" t="n">
-        <v>2162.397112806968</v>
+        <v>2285.520967930624</v>
       </c>
       <c r="AD4" t="n">
-        <v>1747164.554384795</v>
+        <v>1846645.650709429</v>
       </c>
       <c r="AE4" t="n">
-        <v>2390547.622769421</v>
+        <v>2526662.047557009</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.334512210616433e-06</v>
+        <v>1.971582723693892e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.02083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2162397.112806968</v>
+        <v>2285520.967930623</v>
       </c>
     </row>
     <row r="5">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1502.224972799588</v>
+        <v>1601.70597961567</v>
       </c>
       <c r="AB5" t="n">
-        <v>2055.410481272848</v>
+        <v>2191.524783590888</v>
       </c>
       <c r="AC5" t="n">
-        <v>1859.244989726895</v>
+        <v>1982.368734069324</v>
       </c>
       <c r="AD5" t="n">
-        <v>1502224.972799588</v>
+        <v>1601705.97961567</v>
       </c>
       <c r="AE5" t="n">
-        <v>2055410.481272848</v>
+        <v>2191524.783590888</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.414524472754165e-06</v>
+        <v>2.089791303922282e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.6625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1859244.989726895</v>
+        <v>1982368.734069324</v>
       </c>
     </row>
     <row r="6">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1459.814338805387</v>
+        <v>1550.9982394908</v>
       </c>
       <c r="AB6" t="n">
-        <v>1997.382380816862</v>
+        <v>2122.14421648443</v>
       </c>
       <c r="AC6" t="n">
-        <v>1806.755009735478</v>
+        <v>1919.60975091127</v>
       </c>
       <c r="AD6" t="n">
-        <v>1459814.338805387</v>
+        <v>1550998.2394908</v>
       </c>
       <c r="AE6" t="n">
-        <v>1997382.380816862</v>
+        <v>2122144.21648443</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.428526618628268e-06</v>
+        <v>2.110477805462251e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.43958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1806755.009735478</v>
+        <v>1919609.75091127</v>
       </c>
     </row>
   </sheetData>
@@ -22054,28 +22054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7541.179665961994</v>
+        <v>7762.762627619773</v>
       </c>
       <c r="AB2" t="n">
-        <v>10318.17471233633</v>
+        <v>10621.35429602687</v>
       </c>
       <c r="AC2" t="n">
-        <v>9333.422599439724</v>
+        <v>9607.667149178047</v>
       </c>
       <c r="AD2" t="n">
-        <v>7541179.665961994</v>
+        <v>7762762.627619773</v>
       </c>
       <c r="AE2" t="n">
-        <v>10318174.71233633</v>
+        <v>10621354.29602687</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.024363393909077e-07</v>
+        <v>8.748393859523208e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.27916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>9333422.599439723</v>
+        <v>9607667.149178047</v>
       </c>
     </row>
     <row r="3">
@@ -22160,28 +22160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2874.227576448214</v>
+        <v>3002.162319058813</v>
       </c>
       <c r="AB3" t="n">
-        <v>3932.644972068109</v>
+        <v>4107.690930990447</v>
       </c>
       <c r="AC3" t="n">
-        <v>3557.318855435665</v>
+        <v>3715.658673716994</v>
       </c>
       <c r="AD3" t="n">
-        <v>2874227.576448214</v>
+        <v>3002162.319058813</v>
       </c>
       <c r="AE3" t="n">
-        <v>3932644.97206811</v>
+        <v>4107690.930990447</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.046812836844649e-06</v>
+        <v>1.520149166828301e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.50833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3557318.855435665</v>
+        <v>3715658.673716994</v>
       </c>
     </row>
     <row r="4">
@@ -22266,28 +22266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2217.717074854846</v>
+        <v>2328.593851784032</v>
       </c>
       <c r="AB4" t="n">
-        <v>3034.378340588802</v>
+        <v>3186.084838321495</v>
       </c>
       <c r="AC4" t="n">
-        <v>2744.781530539641</v>
+        <v>2882.009373050126</v>
       </c>
       <c r="AD4" t="n">
-        <v>2217717.074854846</v>
+        <v>2328593.851784032</v>
       </c>
       <c r="AE4" t="n">
-        <v>3034378.340588802</v>
+        <v>3186084.838321495</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.210655355925858e-06</v>
+        <v>1.758076196480605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.51666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2744781.530539641</v>
+        <v>2882009.373050126</v>
       </c>
     </row>
     <row r="5">
@@ -22372,28 +22372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1933.131587460876</v>
+        <v>2043.837682680919</v>
       </c>
       <c r="AB5" t="n">
-        <v>2644.995921710583</v>
+        <v>2796.468885198872</v>
       </c>
       <c r="AC5" t="n">
-        <v>2392.561223217616</v>
+        <v>2529.577819664222</v>
       </c>
       <c r="AD5" t="n">
-        <v>1933131.587460876</v>
+        <v>2043837.682680919</v>
       </c>
       <c r="AE5" t="n">
-        <v>2644995.921710583</v>
+        <v>2796468.885198872</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.295764501584332e-06</v>
+        <v>1.881669060752481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.83958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2392561.223217616</v>
+        <v>2529577.819664222</v>
       </c>
     </row>
     <row r="6">
@@ -22478,28 +22478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1748.364958125185</v>
+        <v>1850.627411359093</v>
       </c>
       <c r="AB6" t="n">
-        <v>2392.190068125098</v>
+        <v>2532.110068140761</v>
       </c>
       <c r="AC6" t="n">
-        <v>2163.882805483085</v>
+        <v>2290.449037076207</v>
       </c>
       <c r="AD6" t="n">
-        <v>1748364.958125185</v>
+        <v>1850627.411359093</v>
       </c>
       <c r="AE6" t="n">
-        <v>2392190.068125098</v>
+        <v>2532110.068140761</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.351367166430896e-06</v>
+        <v>1.962413527829055e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.85833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2163882.805483085</v>
+        <v>2290449.037076207</v>
       </c>
     </row>
     <row r="7">
@@ -22584,28 +22584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1617.21153547847</v>
+        <v>1710.945095380222</v>
       </c>
       <c r="AB7" t="n">
-        <v>2212.740169179216</v>
+        <v>2340.990561069606</v>
       </c>
       <c r="AC7" t="n">
-        <v>2001.559353033083</v>
+        <v>2117.569707522011</v>
       </c>
       <c r="AD7" t="n">
-        <v>1617211.53547847</v>
+        <v>1710945.095380222</v>
       </c>
       <c r="AE7" t="n">
-        <v>2212740.169179216</v>
+        <v>2340990.561069606</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.388583883434863e-06</v>
+        <v>2.016458491125642e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.24583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2001559.353033083</v>
+        <v>2117569.707522011</v>
       </c>
     </row>
     <row r="8">
@@ -22690,28 +22690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1592.133581829069</v>
+        <v>1685.867141730822</v>
       </c>
       <c r="AB8" t="n">
-        <v>2178.427406634874</v>
+        <v>2306.677798525264</v>
       </c>
       <c r="AC8" t="n">
-        <v>1970.521352387709</v>
+        <v>2086.531706876636</v>
       </c>
       <c r="AD8" t="n">
-        <v>1592133.581829069</v>
+        <v>1685867.141730822</v>
       </c>
       <c r="AE8" t="n">
-        <v>2178427.406634874</v>
+        <v>2306677.798525264</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.396145845853996e-06</v>
+        <v>2.027439738648056e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1970521.352387709</v>
+        <v>2086531.706876636</v>
       </c>
     </row>
     <row r="9">
@@ -22796,28 +22796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1599.568305172883</v>
+        <v>1693.301865074636</v>
       </c>
       <c r="AB9" t="n">
-        <v>2188.599923110726</v>
+        <v>2316.850315001116</v>
       </c>
       <c r="AC9" t="n">
-        <v>1979.723018168322</v>
+        <v>2095.733372657249</v>
       </c>
       <c r="AD9" t="n">
-        <v>1599568.305172883</v>
+        <v>1693301.865074636</v>
       </c>
       <c r="AE9" t="n">
-        <v>2188599.923110726</v>
+        <v>2316850.315001116</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.396145845853996e-06</v>
+        <v>2.027439738648056e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.12708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1979723.018168322</v>
+        <v>2095733.372657249</v>
       </c>
     </row>
   </sheetData>
@@ -23093,28 +23093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1201.306002378347</v>
+        <v>1315.071374556505</v>
       </c>
       <c r="AB2" t="n">
-        <v>1643.679870334478</v>
+        <v>1799.338671522632</v>
       </c>
       <c r="AC2" t="n">
-        <v>1486.809370428941</v>
+        <v>1627.612314100197</v>
       </c>
       <c r="AD2" t="n">
-        <v>1201306.002378347</v>
+        <v>1315071.374556505</v>
       </c>
       <c r="AE2" t="n">
-        <v>1643679.870334478</v>
+        <v>1799338.671522632</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.235542381814916e-06</v>
+        <v>2.059575538054255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.12708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1486809.370428941</v>
+        <v>1627612.314100197</v>
       </c>
     </row>
   </sheetData>
@@ -23390,28 +23390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2459.188042701798</v>
+        <v>2594.040557581524</v>
       </c>
       <c r="AB2" t="n">
-        <v>3364.769571744274</v>
+        <v>3549.280731875805</v>
       </c>
       <c r="AC2" t="n">
-        <v>3043.640686300628</v>
+        <v>3210.542360272238</v>
       </c>
       <c r="AD2" t="n">
-        <v>2459188.042701798</v>
+        <v>2594040.557581524</v>
       </c>
       <c r="AE2" t="n">
-        <v>3364769.571744274</v>
+        <v>3549280.731875806</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.069613327527936e-06</v>
+        <v>1.627851605846699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.80833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3043640.686300628</v>
+        <v>3210542.360272238</v>
       </c>
     </row>
     <row r="3">
@@ -23496,28 +23496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1423.821434361579</v>
+        <v>1519.046674725349</v>
       </c>
       <c r="AB3" t="n">
-        <v>1948.135301061967</v>
+        <v>2078.426675968788</v>
       </c>
       <c r="AC3" t="n">
-        <v>1762.20800215368</v>
+        <v>1880.064551104487</v>
       </c>
       <c r="AD3" t="n">
-        <v>1423821.434361579</v>
+        <v>1519046.674725349</v>
       </c>
       <c r="AE3" t="n">
-        <v>1948135.301061967</v>
+        <v>2078426.675968787</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.413359290038822e-06</v>
+        <v>2.151000862382165e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.07083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1762208.00215368</v>
+        <v>1880064.551104486</v>
       </c>
     </row>
     <row r="4">
@@ -23602,28 +23602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1307.940093227173</v>
+        <v>1403.079992736371</v>
       </c>
       <c r="AB4" t="n">
-        <v>1789.581337797911</v>
+        <v>1919.755945582533</v>
       </c>
       <c r="AC4" t="n">
-        <v>1618.78620661166</v>
+        <v>1736.537132530528</v>
       </c>
       <c r="AD4" t="n">
-        <v>1307940.093227173</v>
+        <v>1403079.992736371</v>
       </c>
       <c r="AE4" t="n">
-        <v>1789581.337797911</v>
+        <v>1919755.945582533</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.462512513181709e-06</v>
+        <v>2.225807478162296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.26041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1618786.20661166</v>
+        <v>1736537.132530528</v>
       </c>
     </row>
     <row r="5">
@@ -23708,28 +23708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1313.960588672858</v>
+        <v>1409.100488182056</v>
       </c>
       <c r="AB5" t="n">
-        <v>1797.818845272211</v>
+        <v>1927.993453056834</v>
       </c>
       <c r="AC5" t="n">
-        <v>1626.237537934028</v>
+        <v>1743.988463852895</v>
       </c>
       <c r="AD5" t="n">
-        <v>1313960.588672858</v>
+        <v>1409100.488182056</v>
       </c>
       <c r="AE5" t="n">
-        <v>1797818.845272211</v>
+        <v>1927993.453056834</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.463818911138995e-06</v>
+        <v>2.227795693864093e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.24166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1626237.537934028</v>
+        <v>1743988.463852895</v>
       </c>
     </row>
   </sheetData>
@@ -24005,28 +24005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3615.411646250519</v>
+        <v>3770.48450730354</v>
       </c>
       <c r="AB2" t="n">
-        <v>4946.765715105081</v>
+        <v>5158.943244929628</v>
       </c>
       <c r="AC2" t="n">
-        <v>4474.65333808455</v>
+        <v>4666.58094225567</v>
       </c>
       <c r="AD2" t="n">
-        <v>3615411.646250519</v>
+        <v>3770484.50730354</v>
       </c>
       <c r="AE2" t="n">
-        <v>4946765.715105081</v>
+        <v>5158943.244929628</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.865785330876953e-07</v>
+        <v>1.323582573136384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.94166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4474653.338084551</v>
+        <v>4666580.94225567</v>
       </c>
     </row>
     <row r="3">
@@ -24111,28 +24111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1881.388242888343</v>
+        <v>1995.544657321636</v>
       </c>
       <c r="AB3" t="n">
-        <v>2574.198394911191</v>
+        <v>2730.392237364389</v>
       </c>
       <c r="AC3" t="n">
-        <v>2328.520513011005</v>
+        <v>2469.807434359904</v>
       </c>
       <c r="AD3" t="n">
-        <v>1881388.242888343</v>
+        <v>1995544.657321636</v>
       </c>
       <c r="AE3" t="n">
-        <v>2574198.394911191</v>
+        <v>2730392.237364389</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.269101244739116e-06</v>
+        <v>1.894654820066836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.80833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2328520.513011005</v>
+        <v>2469807.434359904</v>
       </c>
     </row>
     <row r="4">
@@ -24217,28 +24217,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1501.682488647165</v>
+        <v>1599.506550282947</v>
       </c>
       <c r="AB4" t="n">
-        <v>2054.668230522791</v>
+        <v>2188.515427345881</v>
       </c>
       <c r="AC4" t="n">
-        <v>1858.573578346669</v>
+        <v>1979.646586560684</v>
       </c>
       <c r="AD4" t="n">
-        <v>1501682.488647165</v>
+        <v>1599506.550282947</v>
       </c>
       <c r="AE4" t="n">
-        <v>2054668.230522791</v>
+        <v>2188515.427345881</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.407614400910469e-06</v>
+        <v>2.101442592177699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.26875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1858573.578346669</v>
+        <v>1979646.586560684</v>
       </c>
     </row>
     <row r="5">
@@ -24323,28 +24323,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1394.390072990318</v>
+        <v>1492.29938597212</v>
       </c>
       <c r="AB5" t="n">
-        <v>1907.866014013782</v>
+        <v>2041.829855489521</v>
       </c>
       <c r="AC5" t="n">
-        <v>1725.781959343074</v>
+        <v>1846.960479807801</v>
       </c>
       <c r="AD5" t="n">
-        <v>1394390.072990318</v>
+        <v>1492299.38597212</v>
       </c>
       <c r="AE5" t="n">
-        <v>1907866.014013782</v>
+        <v>2041829.855489521</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.444404501414552e-06</v>
+        <v>2.156366926654364e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.675</v>
       </c>
       <c r="AH5" t="n">
-        <v>1725781.959343074</v>
+        <v>1846960.479807801</v>
       </c>
     </row>
     <row r="6">
@@ -24429,28 +24429,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1401.843962640773</v>
+        <v>1499.753275622576</v>
       </c>
       <c r="AB6" t="n">
-        <v>1918.064754675937</v>
+        <v>2052.028596151676</v>
       </c>
       <c r="AC6" t="n">
-        <v>1735.007346510456</v>
+        <v>1856.185866975183</v>
       </c>
       <c r="AD6" t="n">
-        <v>1401843.962640773</v>
+        <v>1499753.275622576</v>
       </c>
       <c r="AE6" t="n">
-        <v>1918064.754675937</v>
+        <v>2052028.596151676</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.444404501414552e-06</v>
+        <v>2.156366926654364e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.67708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1735007.346510456</v>
+        <v>1856185.866975183</v>
       </c>
     </row>
   </sheetData>
